--- a/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -410,7 +410,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.570312" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="9.570313" style="3" customWidth="1"/>
     <x:col min="2" max="16384" width="9" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -410,7 +410,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.570313" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="9.570312" style="3" customWidth="1"/>
     <x:col min="2" max="16384" width="9" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -415,27 +415,27 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A1" s="3" t="s"/>
+      <x:c r="A1" s="3"/>
     </x:row>
     <x:row r="2" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A2" s="3" t="s"/>
+      <x:c r="A2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A3" s="3" t="s"/>
+      <x:c r="A3" s="3"/>
     </x:row>
     <x:row r="4" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A4" s="3" t="n">
+      <x:c r="A4" s="3">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A5" s="3" t="s"/>
+      <x:c r="A5" s="3"/>
     </x:row>
     <x:row r="6" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A6" s="3" t="s"/>
+      <x:c r="A6" s="3"/>
     </x:row>
     <x:row r="7" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="3"/>
     </x:row>
     <x:row r="8" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="9" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>

--- a/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -437,13 +437,13 @@
     <x:row r="7" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
       <x:c r="A7" s="3"/>
     </x:row>
-    <x:row r="8" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="9" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="10" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="11" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="12" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="13" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="14" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="8" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="9" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="10" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="11" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="12" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="13" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="14" s="0" customFormat="1" ht="18" customHeight="1"/>
   </x:sheetData>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:conditionalFormatting sqref="A1:A7">
